--- a/final_data_pipeline/output/311513longform.xlsx
+++ b/final_data_pipeline/output/311513longform.xlsx
@@ -1784,7 +1784,7 @@
         <v>101</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1873,7 +1873,7 @@
         <v>101</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -1965,7 +1965,7 @@
         <v>101</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -2060,7 +2060,7 @@
         <v>101</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2149,7 +2149,7 @@
         <v>101</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -2238,7 +2238,7 @@
         <v>101</v>
       </c>
       <c r="AA17">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB17">
         <v>8000</v>
@@ -2327,7 +2327,7 @@
         <v>101</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB18">
         <v>8000</v>
@@ -2416,7 +2416,7 @@
         <v>101</v>
       </c>
       <c r="AA19">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB19">
         <v>8000</v>
@@ -2505,7 +2505,7 @@
         <v>101</v>
       </c>
       <c r="AA20">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB20">
         <v>8000</v>
@@ -2597,7 +2597,7 @@
         <v>101</v>
       </c>
       <c r="AA21">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="AB21">
         <v>8000</v>
@@ -2692,7 +2692,7 @@
         <v>101</v>
       </c>
       <c r="AA22">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB22">
         <v>8000</v>
@@ -2781,7 +2781,7 @@
         <v>101</v>
       </c>
       <c r="AA23">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB23">
         <v>8000</v>
@@ -2870,7 +2870,7 @@
         <v>101</v>
       </c>
       <c r="AA24">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB24">
         <v>8000</v>
@@ -2959,7 +2959,7 @@
         <v>101</v>
       </c>
       <c r="AA25">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB25">
         <v>8000</v>
@@ -3048,7 +3048,7 @@
         <v>101</v>
       </c>
       <c r="AA26">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB26">
         <v>8000</v>
@@ -3137,7 +3137,7 @@
         <v>101</v>
       </c>
       <c r="AA27">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB27">
         <v>8000</v>
@@ -3229,7 +3229,7 @@
         <v>101</v>
       </c>
       <c r="AA28">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB28">
         <v>8000</v>
@@ -3327,7 +3327,7 @@
         <v>101</v>
       </c>
       <c r="AA29">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB29">
         <v>8000</v>
@@ -3425,7 +3425,7 @@
         <v>101</v>
       </c>
       <c r="AA30">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB30">
         <v>8000</v>
@@ -3523,7 +3523,7 @@
         <v>101</v>
       </c>
       <c r="AA31">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB31">
         <v>8000</v>
@@ -3615,7 +3615,7 @@
         <v>101</v>
       </c>
       <c r="AA32">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB32">
         <v>8000</v>
@@ -3713,7 +3713,7 @@
         <v>101</v>
       </c>
       <c r="AA33">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB33">
         <v>8000</v>
@@ -3802,7 +3802,7 @@
         <v>101</v>
       </c>
       <c r="AA34">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB34">
         <v>8000</v>
@@ -3891,7 +3891,7 @@
         <v>101</v>
       </c>
       <c r="AA35">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB35">
         <v>8000</v>
@@ -3980,7 +3980,7 @@
         <v>101</v>
       </c>
       <c r="AA36">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB36">
         <v>8000</v>
@@ -4069,7 +4069,7 @@
         <v>101</v>
       </c>
       <c r="AA37">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB37">
         <v>8000</v>
@@ -4158,7 +4158,7 @@
         <v>101</v>
       </c>
       <c r="AA38">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB38">
         <v>8000</v>
@@ -4247,7 +4247,7 @@
         <v>101</v>
       </c>
       <c r="AA39">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB39">
         <v>8000</v>
@@ -4336,7 +4336,7 @@
         <v>101</v>
       </c>
       <c r="AA40">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB40">
         <v>8000</v>
@@ -4425,7 +4425,7 @@
         <v>101</v>
       </c>
       <c r="AA41">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB41">
         <v>8000</v>
@@ -4514,7 +4514,7 @@
         <v>101</v>
       </c>
       <c r="AA42">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB42">
         <v>8000</v>
@@ -4603,7 +4603,7 @@
         <v>101</v>
       </c>
       <c r="AA43">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB43">
         <v>8000</v>
@@ -4692,7 +4692,7 @@
         <v>101</v>
       </c>
       <c r="AA44">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB44">
         <v>8000</v>
@@ -4781,7 +4781,7 @@
         <v>101</v>
       </c>
       <c r="AA45">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB45">
         <v>8000</v>
@@ -4870,7 +4870,7 @@
         <v>101</v>
       </c>
       <c r="AA46">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB46">
         <v>8000</v>
@@ -4959,7 +4959,7 @@
         <v>101</v>
       </c>
       <c r="AA47">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB47">
         <v>8000</v>
@@ -5048,7 +5048,7 @@
         <v>101</v>
       </c>
       <c r="AA48">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB48">
         <v>8000</v>
@@ -5137,7 +5137,7 @@
         <v>101</v>
       </c>
       <c r="AA49">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB49">
         <v>8000</v>
@@ -5229,7 +5229,7 @@
         <v>101</v>
       </c>
       <c r="AA50">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB50">
         <v>8000</v>
@@ -5318,7 +5318,7 @@
         <v>101</v>
       </c>
       <c r="AA51">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB51">
         <v>8000</v>
@@ -5410,7 +5410,7 @@
         <v>101</v>
       </c>
       <c r="AA52">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB52">
         <v>8000</v>
@@ -5505,7 +5505,7 @@
         <v>101</v>
       </c>
       <c r="AA53">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB53">
         <v>8000</v>
@@ -5594,7 +5594,7 @@
         <v>101</v>
       </c>
       <c r="AA54">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB54">
         <v>8000</v>
@@ -5683,7 +5683,7 @@
         <v>101</v>
       </c>
       <c r="AA55">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB55">
         <v>8000</v>
@@ -5772,7 +5772,7 @@
         <v>101</v>
       </c>
       <c r="AA56">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB56">
         <v>8000</v>
@@ -5861,7 +5861,7 @@
         <v>101</v>
       </c>
       <c r="AA57">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB57">
         <v>8000</v>
@@ -5950,7 +5950,7 @@
         <v>101</v>
       </c>
       <c r="AA58">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB58">
         <v>8000</v>
@@ -6039,7 +6039,7 @@
         <v>101</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6128,7 +6128,7 @@
         <v>101</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6217,7 +6217,7 @@
         <v>101</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -6306,7 +6306,7 @@
         <v>101</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6395,7 +6395,7 @@
         <v>101</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6484,7 +6484,7 @@
         <v>101</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6573,7 +6573,7 @@
         <v>101</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6665,7 +6665,7 @@
         <v>101</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6757,7 +6757,7 @@
         <v>101</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -6852,7 +6852,7 @@
         <v>101</v>
       </c>
       <c r="AA68">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB68">
         <v>8000</v>
@@ -6941,7 +6941,7 @@
         <v>101</v>
       </c>
       <c r="AA69">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB69">
         <v>8000</v>
@@ -7030,7 +7030,7 @@
         <v>101</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -7119,7 +7119,7 @@
         <v>101</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7662,7 +7662,7 @@
         <v>101</v>
       </c>
       <c r="AA77">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB77">
         <v>8000</v>
@@ -7751,7 +7751,7 @@
         <v>101</v>
       </c>
       <c r="AA78">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB78">
         <v>8000</v>
@@ -7843,7 +7843,7 @@
         <v>101</v>
       </c>
       <c r="AA79">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB79">
         <v>8000</v>
@@ -7938,7 +7938,7 @@
         <v>101</v>
       </c>
       <c r="AA80">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB80">
         <v>8000</v>
@@ -8027,7 +8027,7 @@
         <v>101</v>
       </c>
       <c r="AA81">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB81">
         <v>8000</v>
@@ -11033,7 +11033,7 @@
         <v>101</v>
       </c>
       <c r="AA114">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB114">
         <v>8000</v>
@@ -11128,7 +11128,7 @@
         <v>101</v>
       </c>
       <c r="AA115">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB115">
         <v>8000</v>
@@ -11217,7 +11217,7 @@
         <v>101</v>
       </c>
       <c r="AA116">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB116">
         <v>8000</v>
@@ -11306,7 +11306,7 @@
         <v>101</v>
       </c>
       <c r="AA117">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB117">
         <v>8000</v>
@@ -11395,7 +11395,7 @@
         <v>101</v>
       </c>
       <c r="AA118">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB118">
         <v>8000</v>
@@ -11484,7 +11484,7 @@
         <v>101</v>
       </c>
       <c r="AA119">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB119">
         <v>8000</v>
@@ -11573,7 +11573,7 @@
         <v>101</v>
       </c>
       <c r="AA120">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB120">
         <v>8000</v>
@@ -11662,7 +11662,7 @@
         <v>101</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB121">
         <v>8000</v>
@@ -11751,7 +11751,7 @@
         <v>101</v>
       </c>
       <c r="AA122">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB122">
         <v>8000</v>
@@ -11840,7 +11840,7 @@
         <v>101</v>
       </c>
       <c r="AA123">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB123">
         <v>8000</v>
@@ -11929,7 +11929,7 @@
         <v>101</v>
       </c>
       <c r="AA124">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB124">
         <v>8000</v>
@@ -12018,7 +12018,7 @@
         <v>101</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -12110,7 +12110,7 @@
         <v>101</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -12202,7 +12202,7 @@
         <v>101</v>
       </c>
       <c r="AA127">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB127">
         <v>8000</v>
@@ -12297,7 +12297,7 @@
         <v>101</v>
       </c>
       <c r="AA128">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="AB128">
         <v>8000</v>
@@ -12386,7 +12386,7 @@
         <v>101</v>
       </c>
       <c r="AA129">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB129">
         <v>8000</v>
@@ -12475,7 +12475,7 @@
         <v>101</v>
       </c>
       <c r="AA130">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB130">
         <v>8000</v>
@@ -12567,7 +12567,7 @@
         <v>101</v>
       </c>
       <c r="AA131">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB131">
         <v>8000</v>
@@ -12662,7 +12662,7 @@
         <v>101</v>
       </c>
       <c r="AA132">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB132">
         <v>8000</v>
@@ -12751,7 +12751,7 @@
         <v>101</v>
       </c>
       <c r="AA133">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB133">
         <v>8000</v>
@@ -12840,7 +12840,7 @@
         <v>101</v>
       </c>
       <c r="AA134">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB134">
         <v>8000</v>
@@ -12929,7 +12929,7 @@
         <v>101</v>
       </c>
       <c r="AA135">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB135">
         <v>8000</v>
@@ -13018,7 +13018,7 @@
         <v>101</v>
       </c>
       <c r="AA136">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB136">
         <v>8000</v>
@@ -13107,7 +13107,7 @@
         <v>101</v>
       </c>
       <c r="AA137">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB137">
         <v>8000</v>
@@ -13199,7 +13199,7 @@
         <v>101</v>
       </c>
       <c r="AA138">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB138">
         <v>8000</v>
@@ -13297,7 +13297,7 @@
         <v>101</v>
       </c>
       <c r="AA139">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB139">
         <v>8000</v>
@@ -13392,7 +13392,7 @@
         <v>101</v>
       </c>
       <c r="AA140">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB140">
         <v>8000</v>
@@ -13484,7 +13484,7 @@
         <v>101</v>
       </c>
       <c r="AA141">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB141">
         <v>8000</v>
@@ -13582,7 +13582,7 @@
         <v>101</v>
       </c>
       <c r="AA142">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB142">
         <v>8000</v>
@@ -13677,7 +13677,7 @@
         <v>101</v>
       </c>
       <c r="AA143">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB143">
         <v>8000</v>
@@ -13766,7 +13766,7 @@
         <v>101</v>
       </c>
       <c r="AA144">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB144">
         <v>8000</v>
@@ -13855,7 +13855,7 @@
         <v>101</v>
       </c>
       <c r="AA145">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB145">
         <v>8000</v>
@@ -13944,7 +13944,7 @@
         <v>101</v>
       </c>
       <c r="AA146">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB146">
         <v>8000</v>
@@ -14036,7 +14036,7 @@
         <v>101</v>
       </c>
       <c r="AA147">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB147">
         <v>8000</v>
@@ -14134,7 +14134,7 @@
         <v>101</v>
       </c>
       <c r="AA148">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB148">
         <v>8000</v>
@@ -14229,7 +14229,7 @@
         <v>101</v>
       </c>
       <c r="AA149">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB149">
         <v>8000</v>
@@ -14318,7 +14318,7 @@
         <v>101</v>
       </c>
       <c r="AA150">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB150">
         <v>8000</v>
@@ -14407,7 +14407,7 @@
         <v>101</v>
       </c>
       <c r="AA151">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB151">
         <v>8000</v>
@@ -14496,7 +14496,7 @@
         <v>101</v>
       </c>
       <c r="AA152">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB152">
         <v>8000</v>
@@ -14585,7 +14585,7 @@
         <v>101</v>
       </c>
       <c r="AA153">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB153">
         <v>8000</v>
@@ -14674,7 +14674,7 @@
         <v>101</v>
       </c>
       <c r="AA154">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB154">
         <v>8000</v>
@@ -14763,7 +14763,7 @@
         <v>101</v>
       </c>
       <c r="AA155">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB155">
         <v>8000</v>
@@ -14852,7 +14852,7 @@
         <v>101</v>
       </c>
       <c r="AA156">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB156">
         <v>8000</v>
@@ -14941,7 +14941,7 @@
         <v>101</v>
       </c>
       <c r="AA157">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB157">
         <v>8000</v>
@@ -15030,7 +15030,7 @@
         <v>101</v>
       </c>
       <c r="AA158">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB158">
         <v>8000</v>
@@ -15119,7 +15119,7 @@
         <v>101</v>
       </c>
       <c r="AA159">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB159">
         <v>8000</v>
@@ -15208,7 +15208,7 @@
         <v>101</v>
       </c>
       <c r="AA160">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB160">
         <v>8000</v>
@@ -15297,7 +15297,7 @@
         <v>101</v>
       </c>
       <c r="AA161">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB161">
         <v>8000</v>
@@ -15386,7 +15386,7 @@
         <v>101</v>
       </c>
       <c r="AA162">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB162">
         <v>8000</v>
@@ -15475,7 +15475,7 @@
         <v>101</v>
       </c>
       <c r="AA163">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB163">
         <v>8000</v>
@@ -15564,7 +15564,7 @@
         <v>101</v>
       </c>
       <c r="AA164">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB164">
         <v>8000</v>
@@ -15656,7 +15656,7 @@
         <v>101</v>
       </c>
       <c r="AA165">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB165">
         <v>8000</v>
@@ -15751,7 +15751,7 @@
         <v>101</v>
       </c>
       <c r="AA166">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB166">
         <v>8000</v>
@@ -15840,7 +15840,7 @@
         <v>101</v>
       </c>
       <c r="AA167">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB167">
         <v>8000</v>
@@ -15929,7 +15929,7 @@
         <v>101</v>
       </c>
       <c r="AA168">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB168">
         <v>8000</v>
@@ -16021,7 +16021,7 @@
         <v>101</v>
       </c>
       <c r="AA169">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB169">
         <v>8000</v>
@@ -16110,7 +16110,7 @@
         <v>101</v>
       </c>
       <c r="AA170">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB170">
         <v>8000</v>
@@ -16199,7 +16199,7 @@
         <v>101</v>
       </c>
       <c r="AA171">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB171">
         <v>8000</v>
@@ -16288,7 +16288,7 @@
         <v>101</v>
       </c>
       <c r="AA172">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB172">
         <v>8000</v>
@@ -16377,7 +16377,7 @@
         <v>101</v>
       </c>
       <c r="AA173">
-        <v>10</v>
+        <v>-3.222222222222223</v>
       </c>
       <c r="AB173">
         <v>8000</v>
